--- a/Output_testing/R1_201907/Country/HKD/MN/SLOVENIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SLOVENIA_201907_HKD_MN.xlsx
@@ -810,136 +810,443 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>135.095533</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>23.51398354435977</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>183.667125</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>25.73964945084179</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>230.726198</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>29.33771318162911</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>160.529348</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>31.21765143296846</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>19.3557463958236</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>107.704369</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>18.74642857600372</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>144.384091</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>20.2344098793861</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>174.211863</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>22.15170064706421</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>90.223529</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>17.54549379577821</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-12.45570717802618</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>14.980534</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>2.607429143950467</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>27.287854</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>3.824199873688615</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>46.576206</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>5.922341652405128</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>45.053217</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>8.761361344592821</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>179.6186348633784</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>22.165529</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>3.858009754904549</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>44.028851</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>6.170332281639107</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>58.915856</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>7.491375059099975</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>27.662838</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>5.379507517408433</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>39.38723474927031</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>PUMPS (OTHER THAN PUMPS FOR LIQUIDS), AIR COMPRESSORS AND FANS; VENTILATING HOODS INCORPORATING A FAN; CENTRIFUGES; FILTERING APPARATUS; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>4.163167</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.7246178919211316</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>5.600998</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.7849402831065493</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>14.157303</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.80015489545499</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>22.013305</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.280860110249883</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>437.5718781494577</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>20.180162</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>3.512447722387049</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>36.564782</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>5.124295765649132</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>28.18101</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.58332255164462</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>16.296633</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.169156387061455</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-8.366758262612151</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>10.928564</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.9021655886985</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>9.960686000000001</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.395919743012842</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>13.563659</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.724670804116584</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>14.343084</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.789255686666011</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>68.10879011723476</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ROTATING ELECTRIC PLANT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>16.411717</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.856532965251261</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>21.43902</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>3.004527126831142</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>18.824688</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.393630641274882</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>12.416367</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.414572923262682</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>8.863293366242697</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MOTORCYCLES (INCLUDING MOPEDS) AND CYCLES, MOTORIZED AND NON-MOTORIZED; INVALID CARRIAGES</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>0.858526</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.1091648445876585</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>12.39813</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.411026429638456</v>
+      </c>
+      <c r="K26" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>30.822031</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>5.364712760249052</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>35.460035</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>4.969473281702323</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>13.810616</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.756072325473927</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>9.525876999999999</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.852468171610161</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>95.87358567616329</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>212.051472</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>36.90850994433153</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>205.019187</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>28.73199002857251</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>186.623232</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>23.72985339724892</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>103.763889</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>20.17864620076343</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-5.226955808362899</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1278,597 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>22.165529</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>99.35209546789103</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>44.028851</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>99.82885808133315</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>58.915856</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>99.96532018173183</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>24.537998</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>98.88123318423509</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>23.64182183704815</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>OTHER TEXTILE FABRICS, WOVEN</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>1.102813158821254</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>0.1061762359672716</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.07593358402979554</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-62.29523809523809</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>0.07284600586542127</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>0.09509950179043637</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.2842706459507065</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.1846116443255664</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>MEAT OF BOVINE ANIMALS, FRESH, CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1900,443 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>135.095533</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>24.46396046924978</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>183.667125</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>27.43540740313194</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>230.726198</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>31.71438060431157</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>160.529348</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>32.80054646958089</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>19.3557463958236</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>107.704369</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>19.50379384921255</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>144.384091</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>21.56747626509576</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>174.211863</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>23.94622447238603</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>90.223529</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>18.43514031847982</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-12.45570717802618</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>14.917113</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>2.701285931840041</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>27.287854</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>4.076142595726827</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>46.576206</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>6.40211444124269</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>45.053217</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>9.205607299997331</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>179.6186348633784</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>PUMPS (OTHER THAN PUMPS FOR LIQUIDS), AIR COMPRESSORS AND FANS; VENTILATING HOODS INCORPORATING A FAN; CENTRIFUGES; FILTERING APPARATUS; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>4.163167</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.7538928242348708</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>5.600998</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.8366530591368879</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>14.157303</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.945986626419259</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>22.013305</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.497921673497093</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>437.5718781494577</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>20.180162</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>3.65435240135628</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>36.564782</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>5.461890312578833</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>28.18101</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.87360986615794</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>16.296633</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.329848869841578</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-8.366758262612151</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>10.928564</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.979014048389492</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>9.960686000000001</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.487884554324421</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>13.563659</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.864387519240863</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>14.343084</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.930685255502951</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>68.10879011723476</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ROTATING ELECTRIC PLANT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>16.411717</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.971938353583568</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>21.43902</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>3.202468857852998</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>18.824688</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.587540232381486</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>12.416367</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.537004154323673</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>8.863293366242697</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MOTORCYCLES (INCLUDING MOPEDS) AND CYCLES, MOTORIZED AND NON-MOTORIZED; INVALID CARRIAGES</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>0.858526</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.1180083603800258</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>12.39813</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.533277835283458</v>
+      </c>
+      <c r="K51" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>30.822031</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>5.581449891211363</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>35.460035</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>5.296867943864846</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>13.810616</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.898332898477333</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>9.525876999999999</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.946397808841856</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>95.87358567616329</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>16.011334</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>2.899434447147523</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>11.3161</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.690350484413481</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>16.891635</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>2.321833177431851</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>8.824318999999999</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.803050277273322</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>1.643503597708995</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>195.959011</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>35.48550712403853</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>193.627606</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>28.92326133543558</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>169.711158</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>23.32758180157095</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>97.786781</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>19.98052003737802</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-2.984083220748734</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2368,471 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>MOTOR CARS AND OTHER MOTOR VEHICLES PRINCIPALLY DESIGNED FOR THE TRANSPORT OF PERSONS (OTHER THAN PUBLIC-TRANSPORT TYPE VEHICLES), INCLUDING STATION WAGONS AND RACING CARS</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>40.203056</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>7.252527236495895</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>1120.42462</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>63.92929199545944</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>533.040198</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>57.31984239840773</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-5.404076716136608</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>32.577963</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>6.607805182096678</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>31.489452</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>5.680615630123495</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>68.867903</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>3.929471203517445</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>52.57969</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>5.654094298076062</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>66.95760582270782</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>1.020806</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.2070506119954578</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>1.0995</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.1983469539362191</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>5.92524</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>0.338082894057769</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>50.03956</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>5.380944445930263</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>45.121705</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>9.152058897115131</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>54.908572</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>9.905364257560318</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>92.40866</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>5.272661902100234</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>45.068274</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>4.846363130850137</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-23.22154561918786</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>58.510198</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>11.86765389689658</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>45.282141</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>8.168781023247275</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>98.781001</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>5.636255526527764</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>35.171572</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>3.782133076470624</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-27.77650577201535</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>PRINTING AND BOOKBINDING MACHINERY, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>3.999588</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.7215153222372486</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>15.1348</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.8635628236131401</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>28.682947</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>3.084386520436273</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>658.8081216931217</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>28.657087</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>5.812531863407031</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>18.669251</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>3.367884554907424</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>21.314191</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>1.216147089025938</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>17.865191</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.921112021906934</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>74.45138238914302</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>PHOTOGRAPHIC APPARATUS AND EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>17.706</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.90399360745061</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>MEDICINAL AND PHARMACEUTICAL PRODUCTS, OTHER THAN MEDICAMENTS OF GROUP 542</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>14.730035</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.583976758021221</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>10.178557</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>2.064522011117344</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>14.278461</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>2.57579740449941</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>22.336678</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.274488247206273</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>12.943844</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.391900837672988</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-0.05067022609175353</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>316.649058</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>64.2260931525532</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>343.956083</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>62.04878704036686</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>307.40667</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>17.540038318492</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>122.112786</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>13.13125290477715</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-31.54972423509207</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
